--- a/data/534/BSE/BSE Index - Daily.xlsx
+++ b/data/534/BSE/BSE Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:KPU3"/>
+  <dimension ref="A1:KPX3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39719,15 +39719,30 @@
       </c>
       <c r="KPS1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+      <c r="KPT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="KPU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="KPV1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="KPT1" s="1" t="inlineStr">
+      <c r="KPW1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="KPU1" s="1" t="inlineStr">
+      <c r="KPX1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -62464,19 +62479,28 @@
         <v>17746.83</v>
       </c>
       <c r="KPR2" t="n">
-        <v>17717.08</v>
-      </c>
-      <c r="KPS2" t="inlineStr">
+        <v>17723.94</v>
+      </c>
+      <c r="KPS2" t="n">
+        <v>17950.06</v>
+      </c>
+      <c r="KPT2" t="n">
+        <v>18327.05</v>
+      </c>
+      <c r="KPU2" t="n">
+        <v>18288.83</v>
+      </c>
+      <c r="KPV2" t="inlineStr">
         <is>
           <t>BSE100</t>
         </is>
       </c>
-      <c r="KPT2" t="inlineStr">
+      <c r="KPW2" t="inlineStr">
         <is>
           <t>National Index, Close Price</t>
         </is>
       </c>
-      <c r="KPU2" t="inlineStr">
+      <c r="KPX2" t="inlineStr">
         <is>
           <t>Index: 1983.01.01=100</t>
         </is>
@@ -84981,19 +85005,28 @@
         <v>58683.99</v>
       </c>
       <c r="KPR3" t="n">
-        <v>58543.96</v>
-      </c>
-      <c r="KPS3" t="inlineStr">
+        <v>58568.51</v>
+      </c>
+      <c r="KPS3" t="n">
+        <v>59276.69</v>
+      </c>
+      <c r="KPT3" t="n">
+        <v>60611.74</v>
+      </c>
+      <c r="KPU3" t="n">
+        <v>60176.5</v>
+      </c>
+      <c r="KPV3" t="inlineStr">
         <is>
           <t>BSESN</t>
         </is>
       </c>
-      <c r="KPT3" t="inlineStr">
+      <c r="KPW3" t="inlineStr">
         <is>
           <t>Sensitive Index, Close Price</t>
         </is>
       </c>
-      <c r="KPU3" t="inlineStr">
+      <c r="KPX3" t="inlineStr">
         <is>
           <t>Index: 1978.01.01=100</t>
         </is>
